--- a/2ª fase/MAPEAMENTO VETERINÁRIA.xlsx
+++ b/2ª fase/MAPEAMENTO VETERINÁRIA.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalve\Documents\OPE1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalve\Documents\OPE1\2ª fase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -204,12 +205,87 @@
   </si>
   <si>
     <t>REALIZA - 4FN</t>
+  </si>
+  <si>
+    <t>PROCEDIMENTO</t>
+  </si>
+  <si>
+    <t>PROPRIETARIO</t>
+  </si>
+  <si>
+    <t>HOTEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t>valor diaria</t>
+  </si>
+  <si>
+    <t>DIAGNÓSTICO</t>
+  </si>
+  <si>
+    <t>data diagnóstico</t>
+  </si>
+  <si>
+    <t>diagnóstico</t>
+  </si>
+  <si>
+    <t>HISTÓRICO DE DOENÇAS</t>
+  </si>
+  <si>
+    <t>destinatario</t>
+  </si>
+  <si>
+    <t>Zela</t>
+  </si>
+  <si>
+    <t>É Hospedado</t>
+  </si>
+  <si>
+    <t>Tem</t>
+  </si>
+  <si>
+    <t>id proprietario</t>
+  </si>
+  <si>
+    <t>Pertence</t>
+  </si>
+  <si>
+    <t>Recebe</t>
+  </si>
+  <si>
+    <t>SEGUE</t>
+  </si>
+  <si>
+    <t>REALIZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id procedimento </t>
+  </si>
+  <si>
+    <t>TELEFONE PROPRIETARIO</t>
+  </si>
+  <si>
+    <t>logradouro</t>
+  </si>
+  <si>
+    <t>bairro</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>cep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +348,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -285,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -297,6 +379,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,10 +1045,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="3"/>
+      <c r="A34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="15"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -983,4 +1078,418 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:K50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="15"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A50:B50"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>